--- a/fuentes/contenidos/grado09/guion12/ES_CN_09_12_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion12/ES_CN_09_12_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MIS DOCUMENTOS\Desktop\CienciasNaturales\fuentes\contenidos\grado09\guion12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado09\guion12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$43</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1352,34 +1352,16 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1425,6 +1407,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1735,8 +1735,8 @@
   <dimension ref="A1:U284"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4:K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,94 +1764,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="107" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="110" t="s">
+      <c r="J1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="108" t="s">
+      <c r="K1" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="106" t="s">
+      <c r="L1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="112" t="s">
+      <c r="M1" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="112"/>
-      <c r="O1" s="92" t="s">
+      <c r="N1" s="106"/>
+      <c r="O1" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="92" t="s">
+      <c r="P1" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="94" t="s">
+      <c r="Q1" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="98" t="s">
+      <c r="R1" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="94" t="s">
+      <c r="S1" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="96" t="s">
+      <c r="T1" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="94" t="s">
+      <c r="U1" s="111" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="105"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="107"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="101"/>
       <c r="M2" s="27" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="112"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5267,10 +5267,16 @@
     <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U42">
+  <autoFilter ref="A1:U43">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5285,12 +5291,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado09/guion12/ES_CN_09_12_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion12/ES_CN_09_12_CO.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado09\guion12\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7695"/>
   </bookViews>
@@ -16,14 +11,14 @@
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$P$1:$P$284</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="298">
   <si>
     <t>Asignatura</t>
   </si>
@@ -434,18 +429,12 @@
     <t>Recurso M4A-03</t>
   </si>
   <si>
-    <t>m102ab</t>
-  </si>
-  <si>
     <t>3º ESO</t>
   </si>
   <si>
     <t>FQ</t>
   </si>
   <si>
-    <t>FQ_09_08</t>
-  </si>
-  <si>
     <t>2º ESO</t>
   </si>
   <si>
@@ -921,6 +910,9 @@
   </si>
   <si>
     <t>Diaporama F1-02</t>
+  </si>
+  <si>
+    <t>Recurso M101A-04</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1480,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1523,7 +1515,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1732,11 +1724,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U284"/>
+  <dimension ref="A1:U122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4:K40"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,11 +1742,11 @@
     <col min="7" max="7" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="92" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
@@ -1777,7 +1769,7 @@
         <v>111</v>
       </c>
       <c r="E1" s="107" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F1" s="92" t="s">
         <v>112</v>
@@ -1858,20 +1850,20 @@
         <v>17</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="E3" s="33" t="s">
         <v>153</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>155</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H3" s="21">
         <v>1</v>
@@ -1880,7 +1872,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>20</v>
@@ -1917,20 +1909,20 @@
         <v>17</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>154</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H4" s="21">
         <v>2</v>
@@ -1939,7 +1931,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="66" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>19</v>
@@ -1950,25 +1942,25 @@
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
       <c r="O4" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P4" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S4" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="U4" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1976,20 +1968,20 @@
         <v>17</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>154</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H5" s="21">
         <v>3</v>
@@ -1998,7 +1990,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>19</v>
@@ -2009,25 +2001,25 @@
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
       <c r="O5" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P5" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S5" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="U5" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2035,20 +2027,20 @@
         <v>17</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>154</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H6" s="21">
         <v>4</v>
@@ -2057,7 +2049,7 @@
         <v>19</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>19</v>
@@ -2072,19 +2064,19 @@
         <v>19</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S6" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="U6" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2092,20 +2084,20 @@
         <v>17</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>154</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H7" s="5">
         <v>5</v>
@@ -2114,7 +2106,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K7" s="60" t="s">
         <v>20</v>
@@ -2127,7 +2119,7 @@
         <v>33</v>
       </c>
       <c r="O7" s="55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P7" s="55" t="s">
         <v>19</v>
@@ -2142,7 +2134,7 @@
         <v>123</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U7" s="10" t="s">
         <v>124</v>
@@ -2153,20 +2145,20 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>154</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F8" s="55"/>
       <c r="G8" s="56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H8" s="57">
         <v>6</v>
@@ -2175,7 +2167,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K8" s="60" t="s">
         <v>20</v>
@@ -2188,7 +2180,7 @@
         <v>33</v>
       </c>
       <c r="O8" s="55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P8" s="55" t="s">
         <v>20</v>
@@ -2203,7 +2195,7 @@
         <v>123</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="U8" s="10" t="s">
         <v>124</v>
@@ -2214,20 +2206,20 @@
         <v>17</v>
       </c>
       <c r="B9" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>152</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>154</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>121</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H9" s="44">
         <v>7</v>
@@ -2236,7 +2228,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K9" s="46" t="s">
         <v>20</v>
@@ -2246,10 +2238,10 @@
       </c>
       <c r="M9" s="48"/>
       <c r="N9" s="48" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O9" s="42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P9" s="42" t="s">
         <v>19</v>
@@ -2264,7 +2256,7 @@
         <v>123</v>
       </c>
       <c r="T9" s="51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="U9" s="49" t="s">
         <v>124</v>
@@ -2275,18 +2267,18 @@
         <v>17</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D10" s="73" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="25"/>
       <c r="G10" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H10" s="21">
         <v>8</v>
@@ -2295,7 +2287,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K10" s="23" t="s">
         <v>20</v>
@@ -2308,7 +2300,7 @@
       </c>
       <c r="N10" s="24"/>
       <c r="O10" s="52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P10" s="25" t="s">
         <v>19</v>
@@ -2317,16 +2309,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="S10" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="T10" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="U10" s="37" t="s">
         <v>142</v>
-      </c>
-      <c r="S10" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="T10" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="U10" s="37" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2334,20 +2326,20 @@
         <v>17</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H11" s="21">
         <v>9</v>
@@ -2356,7 +2348,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -2367,25 +2359,25 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2393,20 +2385,20 @@
         <v>17</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H12" s="21">
         <v>10</v>
@@ -2415,7 +2407,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
@@ -2426,25 +2418,25 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2452,20 +2444,20 @@
         <v>17</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H13" s="21">
         <v>11</v>
@@ -2474,7 +2466,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>20</v>
@@ -2494,16 +2486,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="U13" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="S13" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="U13" s="10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2511,20 +2503,20 @@
         <v>17</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H14" s="21">
         <v>12</v>
@@ -2533,7 +2525,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
@@ -2559,31 +2551,31 @@
         <v>123</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U14" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="70" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E15" s="41" t="s">
         <v>121</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="43" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H15" s="44">
         <v>13</v>
@@ -2592,7 +2584,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="54" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K15" s="46" t="s">
         <v>20</v>
@@ -2602,10 +2594,10 @@
       </c>
       <c r="M15" s="48"/>
       <c r="N15" s="48" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O15" s="42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P15" s="42" t="s">
         <v>19</v>
@@ -2620,31 +2612,31 @@
         <v>123</v>
       </c>
       <c r="T15" s="51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="U15" s="49" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="120.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H16" s="21">
         <v>14</v>
@@ -2653,7 +2645,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K16" s="23" t="s">
         <v>20</v>
@@ -2673,16 +2665,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="U16" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2690,20 +2682,20 @@
         <v>17</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H17" s="21">
         <v>15</v>
@@ -2712,7 +2704,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2738,7 +2730,7 @@
         <v>123</v>
       </c>
       <c r="T17" s="65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="U17" s="63" t="s">
         <v>124</v>
@@ -2749,20 +2741,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F18" s="55"/>
       <c r="G18" s="56" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H18" s="5">
         <v>16</v>
@@ -2771,7 +2763,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="59" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K18" s="60" t="s">
         <v>20</v>
@@ -2791,16 +2783,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="U18" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2808,22 +2800,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E19" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>216</v>
-      </c>
       <c r="G19" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H19" s="21">
         <v>17</v>
@@ -2832,7 +2824,7 @@
         <v>19</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>20</v>
@@ -2858,33 +2850,33 @@
         <v>125</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="U19" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E20" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>216</v>
-      </c>
       <c r="G20" s="34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H20" s="21">
         <v>18</v>
@@ -2893,7 +2885,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K20" s="23" t="s">
         <v>20</v>
@@ -2903,7 +2895,7 @@
       </c>
       <c r="M20" s="24"/>
       <c r="N20" s="24" t="s">
-        <v>52</v>
+        <v>279</v>
       </c>
       <c r="O20" s="36"/>
       <c r="P20" s="25" t="s">
@@ -2919,7 +2911,7 @@
         <v>123</v>
       </c>
       <c r="T20" s="39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="U20" s="37" t="s">
         <v>124</v>
@@ -2930,22 +2922,22 @@
         <v>17</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H21" s="5">
         <v>19</v>
@@ -2954,7 +2946,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
@@ -2980,7 +2972,7 @@
         <v>123</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U21" s="10" t="s">
         <v>124</v>
@@ -2991,22 +2983,22 @@
         <v>17</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H22" s="5">
         <v>20</v>
@@ -3015,7 +3007,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
@@ -3044,7 +3036,7 @@
         <v>131</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3052,22 +3044,22 @@
         <v>17</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H23" s="5">
         <v>21</v>
@@ -3076,7 +3068,7 @@
         <v>19</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
@@ -3091,19 +3083,19 @@
         <v>19</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R23" s="11" t="s">
         <v>133</v>
       </c>
       <c r="S23" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="U23" s="10" t="s">
         <v>231</v>
-      </c>
-      <c r="T23" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3111,22 +3103,22 @@
         <v>17</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G24" s="56" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H24" s="5">
         <v>22</v>
@@ -3135,7 +3127,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="59" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K24" s="60" t="s">
         <v>19</v>
@@ -3146,25 +3138,25 @@
       <c r="M24" s="62"/>
       <c r="N24" s="62"/>
       <c r="O24" s="55" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P24" s="55" t="s">
         <v>20</v>
       </c>
       <c r="Q24" s="63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R24" s="64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S24" s="63" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T24" s="65" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="U24" s="63" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3172,22 +3164,22 @@
         <v>17</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G25" s="56" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H25" s="5">
         <v>23</v>
@@ -3196,7 +3188,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="59" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K25" s="60" t="s">
         <v>19</v>
@@ -3211,19 +3203,19 @@
         <v>19</v>
       </c>
       <c r="Q25" s="63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R25" s="64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S25" s="63" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T25" s="65" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="U25" s="63" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3231,20 +3223,20 @@
         <v>17</v>
       </c>
       <c r="B26" s="71" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C26" s="72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E26" s="41" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H26" s="44">
         <v>24</v>
@@ -3253,7 +3245,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="54" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K26" s="46" t="s">
         <v>19</v>
@@ -3262,9 +3254,7 @@
         <v>8</v>
       </c>
       <c r="M26" s="48"/>
-      <c r="N26" s="48" t="s">
-        <v>281</v>
-      </c>
+      <c r="N26" s="48"/>
       <c r="O26" s="42" t="s">
         <v>134</v>
       </c>
@@ -3272,19 +3262,19 @@
         <v>19</v>
       </c>
       <c r="Q26" s="49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R26" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S26" s="49" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T26" s="51" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="U26" s="49" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3292,20 +3282,20 @@
         <v>17</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F27" s="25"/>
       <c r="G27" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H27" s="21">
         <v>25</v>
@@ -3314,7 +3304,7 @@
         <v>19</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K27" s="23" t="s">
         <v>20</v>
@@ -3327,7 +3317,7 @@
       </c>
       <c r="N27" s="24"/>
       <c r="O27" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P27" s="25" t="s">
         <v>19</v>
@@ -3336,16 +3326,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="S27" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="T27" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="U27" s="37" t="s">
         <v>142</v>
-      </c>
-      <c r="S27" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="T27" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="U27" s="37" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3353,20 +3343,20 @@
         <v>17</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H28" s="5">
         <v>26</v>
@@ -3375,7 +3365,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>19</v>
@@ -3386,25 +3376,25 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P28" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="S28" s="63" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T28" s="65" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="U28" s="63" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3412,20 +3402,20 @@
         <v>17</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H29" s="5">
         <v>27</v>
@@ -3434,7 +3424,7 @@
         <v>19</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
@@ -3449,19 +3439,19 @@
         <v>19</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R29" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="U29" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="T29" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3469,20 +3459,20 @@
         <v>17</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="34" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H30" s="5">
         <v>28</v>
@@ -3491,7 +3481,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K30" s="23" t="s">
         <v>19</v>
@@ -3502,25 +3492,25 @@
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
       <c r="O30" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P30" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q30" s="37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R30" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="S30" s="37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T30" s="39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="U30" s="37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3528,20 +3518,20 @@
         <v>17</v>
       </c>
       <c r="B31" s="74" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C31" s="75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="34" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H31" s="5">
         <v>29</v>
@@ -3550,7 +3540,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="53" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K31" s="23" t="s">
         <v>19</v>
@@ -3561,25 +3551,25 @@
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
       <c r="O31" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P31" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q31" s="37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R31" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="S31" s="37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T31" s="39" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="U31" s="37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3587,22 +3577,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="74" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C32" s="75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H32" s="5">
         <v>30</v>
@@ -3611,7 +3601,7 @@
         <v>19</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>19</v>
@@ -3626,19 +3616,19 @@
         <v>19</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3646,22 +3636,22 @@
         <v>17</v>
       </c>
       <c r="B33" s="74" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C33" s="75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H33" s="5">
         <v>31</v>
@@ -3670,7 +3660,7 @@
         <v>19</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>19</v>
@@ -3685,19 +3675,19 @@
         <v>19</v>
       </c>
       <c r="Q33" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S33" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3705,20 +3695,20 @@
         <v>17</v>
       </c>
       <c r="B34" s="74" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C34" s="75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H34" s="5">
         <v>32</v>
@@ -3727,7 +3717,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>20</v>
@@ -3753,7 +3743,7 @@
         <v>123</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="U34" s="10" t="s">
         <v>124</v>
@@ -3764,20 +3754,20 @@
         <v>17</v>
       </c>
       <c r="B35" s="74" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H35" s="5">
         <v>33</v>
@@ -3786,7 +3776,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>20</v>
@@ -3812,7 +3802,7 @@
         <v>123</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="U35" s="10" t="s">
         <v>124</v>
@@ -3823,20 +3813,20 @@
         <v>17</v>
       </c>
       <c r="B36" s="74" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C36" s="75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H36" s="5">
         <v>34</v>
@@ -3845,7 +3835,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>19</v>
@@ -3860,19 +3850,19 @@
         <v>20</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T36" s="12" t="s">
         <v>130</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:21" s="68" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3880,20 +3870,20 @@
         <v>17</v>
       </c>
       <c r="B37" s="77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C37" s="78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D37" s="79" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E37" s="80" t="s">
         <v>121</v>
       </c>
       <c r="F37" s="81"/>
       <c r="G37" s="82" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H37" s="44">
         <v>35</v>
@@ -3902,7 +3892,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="84" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K37" s="85" t="s">
         <v>19</v>
@@ -3912,7 +3902,7 @@
       </c>
       <c r="M37" s="87"/>
       <c r="N37" s="87" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O37" s="81"/>
       <c r="P37" s="81" t="s">
@@ -3928,21 +3918,21 @@
         <v>123</v>
       </c>
       <c r="T37" s="90" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="U37" s="88" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D38" s="32" t="s">
         <v>128</v>
@@ -3950,7 +3940,7 @@
       <c r="E38" s="33"/>
       <c r="F38" s="25"/>
       <c r="G38" s="34" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H38" s="91">
         <v>36</v>
@@ -3959,7 +3949,7 @@
         <v>20</v>
       </c>
       <c r="J38" s="53" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K38" s="23" t="s">
         <v>19</v>
@@ -3968,27 +3958,25 @@
         <v>8</v>
       </c>
       <c r="M38" s="24"/>
-      <c r="N38" s="24" t="s">
-        <v>136</v>
-      </c>
+      <c r="N38" s="24"/>
       <c r="O38" s="25"/>
       <c r="P38" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q38" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="R38" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="S38" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="R38" s="38" t="s">
+      <c r="T38" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="S38" s="37" t="s">
+      <c r="U38" s="37" t="s">
         <v>286</v>
-      </c>
-      <c r="T38" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="U38" s="37" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3996,10 +3984,10 @@
         <v>17</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>128</v>
@@ -4007,7 +3995,7 @@
       <c r="E39" s="13"/>
       <c r="F39" s="9"/>
       <c r="G39" s="16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H39" s="21">
         <v>37</v>
@@ -4016,7 +4004,7 @@
         <v>20</v>
       </c>
       <c r="J39" s="28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>19</v>
@@ -4025,38 +4013,36 @@
         <v>8</v>
       </c>
       <c r="M39" s="8"/>
-      <c r="N39" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="N39" s="8"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q39" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="R39" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="S39" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="R39" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="S39" s="10" t="s">
+      <c r="T39" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="U39" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="T39" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="U39" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>128</v>
@@ -4064,7 +4050,7 @@
       <c r="E40" s="13"/>
       <c r="F40" s="9"/>
       <c r="G40" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H40" s="21">
         <v>38</v>
@@ -4073,7 +4059,7 @@
         <v>20</v>
       </c>
       <c r="J40" s="28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>19</v>
@@ -4082,27 +4068,25 @@
         <v>8</v>
       </c>
       <c r="M40" s="8"/>
-      <c r="N40" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="N40" s="8"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4110,10 +4094,10 @@
         <v>17</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>129</v>
@@ -4130,7 +4114,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>20</v>
@@ -4155,10 +4139,10 @@
         <v>17</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>129</v>
@@ -4175,7 +4159,7 @@
         <v>20</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>20</v>
@@ -4212,10 +4196,10 @@
         <v>17</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C43" s="72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>129</v>
@@ -4223,7 +4207,7 @@
       <c r="E43" s="41"/>
       <c r="F43" s="42"/>
       <c r="G43" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H43" s="44">
         <v>41</v>
@@ -4232,7 +4216,7 @@
         <v>20</v>
       </c>
       <c r="J43" s="45" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K43" s="46" t="s">
         <v>20</v>
@@ -4905,371 +4889,192 @@
       <c r="Q71" s="10"/>
       <c r="R71" s="11"/>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U43">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="U1:U2"/>
